--- a/CMH/LEMMA_SF/SF.xlsx
+++ b/CMH/LEMMA_SF/SF.xlsx
@@ -1377,10 +1377,10 @@
   <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="20" topLeftCell="G111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="20" topLeftCell="G114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="C115" sqref="C115"/>
+      <selection pane="bottomRight" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4020,12 +4020,24 @@
       <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
+      <c r="A115" s="20">
+        <v>44023</v>
+      </c>
+      <c r="B115" s="19">
+        <v>68</v>
+      </c>
+      <c r="C115" s="19">
+        <v>12</v>
+      </c>
+      <c r="D115" s="23">
+        <v>24</v>
+      </c>
+      <c r="E115" s="23">
+        <v>1</v>
+      </c>
+      <c r="F115" s="23">
+        <v>50</v>
+      </c>
       <c r="G115" s="23"/>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
